--- a/biology/Botanique/Salix_burqinensis/Salix_burqinensis.xlsx
+++ b/biology/Botanique/Salix_burqinensis/Salix_burqinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix arctica
 Salix burqinensis est un arbre de la famille des saules (Salix), avec des rameaux brunâtres tournant au doré et des feuilles de 6 à 10 centimètres de long pour 1,5 à 3 cm de large. L'espèce est originaire de Chine.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix burqinensis est un arbre pouvant atteindre 15 mètres de haut avec un tronc de 50 centimètres de diamètre à hauteur de poitrine[2].
-Les chatons mesurent 3 à 5 cm de long et 5 à 10 mm de large. La floraison a lieu en mai[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix burqinensis est un arbre pouvant atteindre 15 mètres de haut avec un tronc de 50 centimètres de diamètre à hauteur de poitrine.
+Les chatons mesurent 3 à 5 cm de long et 5 à 10 mm de large. La floraison a lieu en mai.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire du nord de la province du Xinjiang et pousse au bord des rivières jusqu'à 500 m d'altitude. Elle est parfois confondue avec Salix alba[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire du nord de la province du Xinjiang et pousse au bord des rivières jusqu'à 500 m d'altitude. Elle est parfois confondue avec Salix alba,.
 </t>
         </is>
       </c>
